--- a/Data/EC/NIT-9003754544.xlsx
+++ b/Data/EC/NIT-9003754544.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69FF635-5E27-4BEE-A857-FA8A5CE35F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{997F34D1-9033-490C-A88F-5F773944E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE3A1BAC-489D-49EA-AAE4-3E94244E14FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8C356DAC-6A95-4AB3-B95C-BDD3F091B30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="147">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,208 +71,241 @@
     <t>EIDER LUIS VILLALBA GUZMAN</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1047459394</t>
+  </si>
+  <si>
+    <t>HEBERT JUNIOR TAPIA TERAN</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1015431506</t>
+  </si>
+  <si>
+    <t>MARIA CAROLINA JARAMILLO MEJIA</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>73584736</t>
+  </si>
+  <si>
+    <t>RAFAEL SANTOS OTALORA AGUAS</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1098743876</t>
+  </si>
+  <si>
+    <t>DIEGO JULIAN PEREZ PARRA</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>73120745</t>
+  </si>
+  <si>
+    <t>FRANCISCO PADILLA BLANQUICET</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>2203</t>
   </si>
   <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
+    <t>2204</t>
   </si>
   <si>
     <t>1143332569</t>
@@ -284,181 +317,133 @@
     <t>2205</t>
   </si>
   <si>
-    <t>73120745</t>
-  </si>
-  <si>
-    <t>FRANCISCO PADILLA BLANQUICET</t>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1140421534</t>
+  </si>
+  <si>
+    <t>DIEGO MANUEL SALGADO ANGULO</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1047459394</t>
-  </si>
-  <si>
-    <t>HEBERT JUNIOR TAPIA TERAN</t>
-  </si>
-  <si>
-    <t>1137524470</t>
-  </si>
-  <si>
-    <t>JOSE DAVID ROJAS TAPIA</t>
-  </si>
-  <si>
-    <t>1140421534</t>
-  </si>
-  <si>
-    <t>DIEGO MANUEL SALGADO ANGULO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1128044477</t>
   </si>
   <si>
     <t>HERNAN DE JESUS VALLADALES RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1015431506</t>
-  </si>
-  <si>
-    <t>MARIA CAROLINA JARAMILLO MEJIA</t>
-  </si>
-  <si>
-    <t>1072659264</t>
-  </si>
-  <si>
-    <t>DIANA SOFIA CORREA ROMERO</t>
-  </si>
-  <si>
-    <t>73584736</t>
-  </si>
-  <si>
-    <t>RAFAEL SANTOS OTALORA AGUAS</t>
-  </si>
-  <si>
-    <t>1098743876</t>
-  </si>
-  <si>
-    <t>DIEGO JULIAN PEREZ PARRA</t>
-  </si>
-  <si>
-    <t>1002191596</t>
-  </si>
-  <si>
-    <t>ESTEFANY JULIETH BATISTA CASTRO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +542,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -570,9 +557,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -772,23 +757,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,10 +801,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +857,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C566BF-A689-9041-FA05-A4904DB321DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843F1689-A259-A72C-11A1-F3E865A8E4FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,8 +1208,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4AA929-ACE4-4FF8-8CA1-BA7D01C9AB9F}">
-  <dimension ref="B2:J329"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E13558-1E55-467A-A990-7FC4B45017E2}">
+  <dimension ref="B2:J254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1248,7 +1233,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1293,7 +1278,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1325,12 +1310,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>30683118</v>
+        <v>17460790</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1341,17 +1326,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1378,13 +1363,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1401,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>44000</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>1276000</v>
@@ -1424,7 +1409,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>1276000</v>
@@ -1447,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>1276000</v>
@@ -1470,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>1276000</v>
@@ -1493,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>1276000</v>
@@ -1516,7 +1501,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>1276000</v>
@@ -1539,7 +1524,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>1276000</v>
@@ -1562,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>1276000</v>
@@ -1585,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>1276000</v>
@@ -1608,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>1276000</v>
@@ -1631,7 +1616,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>1276000</v>
@@ -1654,7 +1639,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>1276000</v>
@@ -1677,7 +1662,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>1276000</v>
@@ -1700,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>1276000</v>
@@ -1723,7 +1708,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>1276000</v>
@@ -1737,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G31" s="18">
-        <v>1276000</v>
+        <v>1650000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1766,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>1276000</v>
@@ -1789,10 +1774,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>1276000</v>
@@ -1812,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>1276000</v>
@@ -1835,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>1276000</v>
@@ -1852,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>64000</v>
       </c>
       <c r="G36" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1881,10 +1866,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>1276000</v>
@@ -1904,10 +1889,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>1276000</v>
@@ -1927,10 +1912,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
         <v>1276000</v>
@@ -1950,10 +1935,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>1276000</v>
@@ -1973,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>1276000</v>
@@ -1990,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>1042</v>
       </c>
       <c r="G42" s="18">
-        <v>1276000</v>
+        <v>877803</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2019,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
         <v>1276000</v>
@@ -2042,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -2065,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -2088,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -2105,19 +2090,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G47" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2134,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2151,19 +2136,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G49" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2180,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2197,19 +2182,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G51" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2226,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2243,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G53" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2272,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2289,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G55" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2335,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G57" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2358,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>160000</v>
       </c>
       <c r="G58" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2390,7 +2375,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>1276000</v>
@@ -2404,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G60" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2427,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F61" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G61" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2456,10 +2441,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F62" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>1276000</v>
@@ -2473,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F63" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G63" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2496,19 +2481,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F64" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G64" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2525,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F65" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>1276000</v>
@@ -2542,19 +2527,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F66" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G66" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2565,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F67" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G67" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2594,10 +2579,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F68" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>1276000</v>
@@ -2611,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F69" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G69" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2634,19 +2619,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F70" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G70" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2663,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F71" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>1276000</v>
@@ -2680,19 +2665,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F72" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G72" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2703,19 +2688,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F73" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G73" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2732,10 +2717,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F74" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>1276000</v>
@@ -2749,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F75" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G75" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2772,19 +2757,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F76" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G76" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2801,10 +2786,10 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F77" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>1276000</v>
@@ -2818,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F78" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G78" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2841,19 +2826,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F79" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G79" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2870,10 +2855,10 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F80" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>1276000</v>
@@ -2887,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F81" s="18">
-        <v>25774</v>
+        <v>26000</v>
       </c>
       <c r="G81" s="18">
-        <v>1276000</v>
+        <v>650000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2910,19 +2895,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F82" s="18">
-        <v>25774</v>
+        <v>160000</v>
       </c>
       <c r="G82" s="18">
-        <v>1276000</v>
+        <v>4000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2939,10 +2924,10 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F83" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>1276000</v>
@@ -2956,19 +2941,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F84" s="18">
-        <v>90000</v>
+        <v>26000</v>
       </c>
       <c r="G84" s="18">
-        <v>810870</v>
+        <v>650000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2979,19 +2964,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F85" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G85" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3002,19 +2987,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F86" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3025,13 +3010,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F87" s="18">
         <v>26000</v>
@@ -3048,19 +3033,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F88" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G88" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3071,19 +3056,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F89" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3094,13 +3079,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F90" s="18">
         <v>26000</v>
@@ -3117,19 +3102,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F91" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G91" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3140,19 +3125,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F92" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3163,13 +3148,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F93" s="18">
         <v>26000</v>
@@ -3186,19 +3171,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F94" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G94" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3209,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F95" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3232,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F96" s="18">
         <v>26000</v>
@@ -3255,19 +3240,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F97" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G97" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3278,19 +3263,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F98" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3301,13 +3286,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F99" s="18">
         <v>26000</v>
@@ -3324,19 +3309,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F100" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G100" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3347,19 +3332,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F101" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3370,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F102" s="18">
         <v>26000</v>
@@ -3393,19 +3378,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F103" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G103" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3416,19 +3401,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F104" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3439,13 +3424,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F105" s="18">
         <v>26000</v>
@@ -3462,19 +3447,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F106" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G106" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3485,19 +3470,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F107" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3508,13 +3493,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F108" s="18">
         <v>26000</v>
@@ -3531,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="F109" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G109" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3554,19 +3539,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F110" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3577,13 +3562,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="F111" s="18">
         <v>26000</v>
@@ -3600,19 +3585,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F112" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G112" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3623,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F113" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3646,13 +3631,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F114" s="18">
         <v>26000</v>
@@ -3669,19 +3654,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F115" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G115" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3692,19 +3677,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="F116" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3715,13 +3700,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F117" s="18">
         <v>26000</v>
@@ -3738,19 +3723,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F118" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G118" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3761,19 +3746,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F119" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3784,13 +3769,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F120" s="18">
         <v>26000</v>
@@ -3807,19 +3792,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F121" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G121" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3830,19 +3815,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="F122" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3853,13 +3838,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="18">
         <v>26000</v>
@@ -3876,19 +3861,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F124" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G124" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3899,19 +3884,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F125" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3922,13 +3907,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F126" s="18">
         <v>26000</v>
@@ -3945,19 +3930,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F127" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G127" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3968,19 +3953,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F128" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3991,13 +3976,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F129" s="18">
         <v>26000</v>
@@ -4014,19 +3999,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F130" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G130" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4037,19 +4022,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F131" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4060,13 +4045,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F132" s="18">
         <v>26000</v>
@@ -4083,19 +4068,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F133" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G133" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4106,19 +4091,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F134" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4129,13 +4114,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F135" s="18">
         <v>26000</v>
@@ -4152,19 +4137,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F136" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G136" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4175,19 +4160,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F137" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4198,13 +4183,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F138" s="18">
         <v>26000</v>
@@ -4221,19 +4206,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F139" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G139" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4244,19 +4229,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F140" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4267,13 +4252,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F141" s="18">
         <v>26000</v>
@@ -4290,19 +4275,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F142" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G142" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4313,19 +4298,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F143" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4336,13 +4321,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F144" s="18">
         <v>26000</v>
@@ -4359,19 +4344,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D145" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F145" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G145" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4382,19 +4367,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E146" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F146" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4405,13 +4390,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D147" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F147" s="18">
         <v>26000</v>
@@ -4428,19 +4413,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D148" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E148" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F148" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G148" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4451,19 +4436,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F149" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4474,13 +4459,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F150" s="18">
         <v>26000</v>
@@ -4497,19 +4482,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F151" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G151" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4520,19 +4505,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F152" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4543,13 +4528,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F153" s="18">
         <v>26000</v>
@@ -4566,19 +4551,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F154" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G154" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4589,19 +4574,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F155" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4612,13 +4597,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F156" s="18">
         <v>26000</v>
@@ -4635,19 +4620,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F157" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G157" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4658,19 +4643,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F158" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>650000</v>
+        <v>1276000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4681,13 +4666,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F159" s="18">
         <v>26000</v>
@@ -4704,19 +4689,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F160" s="18">
-        <v>26000</v>
+        <v>160000</v>
       </c>
       <c r="G160" s="18">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4727,19 +4712,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F161" s="18">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="G161" s="18">
-        <v>1650000</v>
+        <v>1276000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4750,19 +4735,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F162" s="18">
-        <v>56940</v>
+        <v>26000</v>
       </c>
       <c r="G162" s="18">
-        <v>1423500</v>
+        <v>650000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4773,19 +4758,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="E163" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F163" s="18">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="G163" s="18">
-        <v>2500000</v>
+        <v>4000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4796,19 +4781,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="E164" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F164" s="18">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="G164" s="18">
-        <v>2500000</v>
+        <v>650000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4819,19 +4804,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F165" s="18">
-        <v>18980</v>
+        <v>160000</v>
       </c>
       <c r="G165" s="18">
-        <v>1423500</v>
+        <v>4000000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4842,19 +4827,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F166" s="18">
-        <v>64000</v>
+        <v>90000</v>
       </c>
       <c r="G166" s="18">
-        <v>4000000</v>
+        <v>2500000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4865,19 +4850,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F167" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G167" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4888,19 +4873,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F168" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G168" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4911,19 +4896,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F169" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G169" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4934,19 +4919,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F170" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G170" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4957,19 +4942,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F171" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G171" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4980,19 +4965,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F172" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G172" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5003,19 +4988,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F173" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G173" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5026,19 +5011,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F174" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G174" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5049,19 +5034,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F175" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G175" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5072,19 +5057,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F176" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G176" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5095,19 +5080,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F177" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G177" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5118,19 +5103,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F178" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G178" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5141,19 +5126,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F179" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G179" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5164,19 +5149,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F180" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G180" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5187,19 +5172,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F181" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G181" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5210,19 +5195,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E182" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F182" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G182" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5233,19 +5218,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E183" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F183" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G183" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5256,19 +5241,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F184" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G184" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5279,19 +5264,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F185" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G185" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5302,19 +5287,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F186" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G186" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5325,19 +5310,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F187" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G187" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5348,19 +5333,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F188" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G188" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5371,19 +5356,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F189" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G189" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5394,19 +5379,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F190" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G190" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5417,19 +5402,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F191" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G191" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5440,19 +5425,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F192" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G192" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5463,19 +5448,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F193" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G193" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5486,19 +5471,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F194" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G194" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5509,19 +5494,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F195" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G195" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5532,19 +5517,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F196" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G196" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5555,19 +5540,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F197" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G197" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5578,19 +5563,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F198" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G198" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5601,19 +5586,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F199" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G199" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5624,19 +5609,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F200" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G200" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5647,19 +5632,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F201" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G201" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5670,19 +5655,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F202" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G202" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5693,19 +5678,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F203" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G203" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5716,19 +5701,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F204" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G204" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5739,19 +5724,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F205" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G205" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5762,19 +5747,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F206" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G206" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5785,19 +5770,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F207" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G207" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5808,19 +5793,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F208" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G208" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5831,19 +5816,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="F209" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G209" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5854,19 +5839,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F210" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G210" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5877,19 +5862,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="F211" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G211" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5900,19 +5885,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="F212" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G212" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5923,19 +5908,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F213" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G213" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5946,19 +5931,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F214" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G214" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5969,19 +5954,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F215" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G215" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5992,19 +5977,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F216" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G216" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6015,19 +6000,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F217" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G217" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6038,19 +6023,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F218" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G218" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6061,19 +6046,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F219" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G219" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6084,19 +6069,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="F220" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G220" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6107,19 +6092,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="F221" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G221" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6130,19 +6115,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F222" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G222" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6153,19 +6138,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="F223" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G223" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6176,19 +6161,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F224" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G224" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6199,19 +6184,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F225" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G225" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6222,19 +6207,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F226" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G226" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6245,19 +6230,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F227" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G227" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6268,19 +6253,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F228" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G228" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6291,19 +6276,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F229" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G229" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6314,19 +6299,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="F230" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G230" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6337,19 +6322,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F231" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G231" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6360,19 +6345,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="F232" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G232" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6383,19 +6368,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F233" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G233" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6406,19 +6391,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="F234" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G234" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6429,19 +6414,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="F235" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G235" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6452,19 +6437,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="F236" s="18">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="G236" s="18">
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6475,19 +6460,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F237" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G237" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6498,19 +6483,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="F238" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G238" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6521,19 +6506,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F239" s="18">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="G239" s="18">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6544,19 +6529,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F240" s="18">
-        <v>180000</v>
+        <v>26000</v>
       </c>
       <c r="G240" s="18">
-        <v>4500000</v>
+        <v>650000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6567,19 +6552,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="F241" s="18">
-        <v>1042</v>
+        <v>160000</v>
       </c>
       <c r="G241" s="18">
-        <v>877803</v>
+        <v>4000000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6590,19 +6575,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F242" s="18">
-        <v>160000</v>
+        <v>26000</v>
       </c>
       <c r="G242" s="18">
-        <v>4000000</v>
+        <v>650000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6613,13 +6598,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F243" s="18">
         <v>160000</v>
@@ -6636,19 +6621,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F244" s="18">
-        <v>160000</v>
+        <v>26000</v>
       </c>
       <c r="G244" s="18">
-        <v>4000000</v>
+        <v>650000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6659,13 +6644,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F245" s="18">
         <v>160000</v>
@@ -6682,19 +6667,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F246" s="18">
-        <v>160000</v>
+        <v>26000</v>
       </c>
       <c r="G246" s="18">
-        <v>4000000</v>
+        <v>650000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6705,1800 +6690,75 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F247" s="18">
-        <v>160000</v>
+        <v>56940</v>
       </c>
       <c r="G247" s="18">
-        <v>4000000</v>
+        <v>1423500</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
       <c r="J247" s="20"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F248" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G248" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F249" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G249" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B250" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D250" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F250" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G250" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B251" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F251" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G251" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B252" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F252" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G252" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="B248" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D248" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E248" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F248" s="24">
+        <v>160000</v>
+      </c>
+      <c r="G248" s="24">
+        <v>4000000</v>
+      </c>
+      <c r="H248" s="25"/>
+      <c r="I248" s="25"/>
+      <c r="J248" s="26"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B253" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D253" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F253" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G253" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="B253" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C253" s="32"/>
+      <c r="H253" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B254" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F254" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G254" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B255" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D255" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E255" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F255" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G255" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B256" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D256" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E256" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F256" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G256" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B257" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D257" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E257" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F257" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G257" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B258" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D258" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F258" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G258" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B259" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C259" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F259" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G259" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B260" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C260" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F260" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G260" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B261" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F261" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G261" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B262" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C262" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F262" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G262" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B263" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E263" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F263" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G263" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="20"/>
-    </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B264" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C264" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D264" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F264" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G264" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="20"/>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B265" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F265" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G265" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="20"/>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B266" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C266" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F266" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G266" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="20"/>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B267" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C267" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D267" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E267" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F267" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G267" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="20"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B268" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D268" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F268" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G268" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B269" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C269" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D269" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F269" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G269" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="20"/>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B270" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C270" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E270" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F270" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G270" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-      <c r="J270" s="20"/>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B271" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C271" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D271" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E271" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F271" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G271" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="20"/>
-    </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B272" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C272" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F272" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G272" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
-      <c r="J272" s="20"/>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B273" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E273" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F273" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G273" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
-      <c r="J273" s="20"/>
-    </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B274" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C274" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D274" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F274" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G274" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="20"/>
-    </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B275" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C275" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E275" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F275" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G275" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
-      <c r="J275" s="20"/>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B276" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C276" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D276" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E276" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F276" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G276" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
-      <c r="J276" s="20"/>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B277" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C277" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D277" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E277" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F277" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G277" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
-      <c r="J277" s="20"/>
-    </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B278" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D278" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E278" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F278" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G278" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-      <c r="J278" s="20"/>
-    </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B279" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C279" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D279" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E279" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F279" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G279" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H279" s="19"/>
-      <c r="I279" s="19"/>
-      <c r="J279" s="20"/>
-    </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B280" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C280" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D280" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E280" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F280" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G280" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H280" s="19"/>
-      <c r="I280" s="19"/>
-      <c r="J280" s="20"/>
-    </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B281" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C281" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D281" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E281" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F281" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G281" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H281" s="19"/>
-      <c r="I281" s="19"/>
-      <c r="J281" s="20"/>
-    </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B282" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C282" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E282" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F282" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G282" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
-      <c r="J282" s="20"/>
-    </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B283" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D283" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E283" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F283" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G283" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
-      <c r="J283" s="20"/>
-    </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B284" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C284" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D284" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E284" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F284" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G284" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H284" s="19"/>
-      <c r="I284" s="19"/>
-      <c r="J284" s="20"/>
-    </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B285" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C285" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D285" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E285" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F285" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G285" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="20"/>
-    </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B286" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C286" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D286" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E286" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F286" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G286" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
-      <c r="J286" s="20"/>
-    </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B287" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C287" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D287" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E287" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F287" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G287" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="20"/>
-    </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B288" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C288" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D288" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E288" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F288" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G288" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="20"/>
-    </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B289" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D289" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E289" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F289" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G289" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H289" s="19"/>
-      <c r="I289" s="19"/>
-      <c r="J289" s="20"/>
-    </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B290" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C290" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D290" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E290" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F290" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G290" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="20"/>
-    </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B291" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C291" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D291" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E291" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F291" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G291" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
-      <c r="J291" s="20"/>
-    </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B292" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C292" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D292" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E292" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F292" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G292" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H292" s="19"/>
-      <c r="I292" s="19"/>
-      <c r="J292" s="20"/>
-    </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B293" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C293" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D293" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E293" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F293" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G293" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H293" s="19"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="20"/>
-    </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B294" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D294" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E294" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F294" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G294" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H294" s="19"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="20"/>
-    </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B295" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C295" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D295" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E295" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F295" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G295" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="20"/>
-    </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B296" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C296" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D296" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E296" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F296" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G296" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
-      <c r="J296" s="20"/>
-    </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B297" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C297" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D297" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E297" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F297" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G297" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="20"/>
-    </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B298" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C298" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D298" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E298" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F298" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G298" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
-      <c r="J298" s="20"/>
-    </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B299" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E299" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F299" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G299" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="20"/>
-    </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B300" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C300" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E300" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F300" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G300" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
-    </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B301" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C301" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D301" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E301" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F301" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G301" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
-      <c r="J301" s="20"/>
-    </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B302" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C302" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E302" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F302" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G302" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
-      <c r="J302" s="20"/>
-    </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B303" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C303" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E303" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F303" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G303" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="20"/>
-    </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B304" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E304" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F304" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G304" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="20"/>
-    </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B305" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C305" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E305" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F305" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G305" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="20"/>
-    </row>
-    <row r="306" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B306" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C306" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E306" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F306" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G306" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="20"/>
-    </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B307" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D307" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E307" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F307" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G307" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-      <c r="J307" s="20"/>
-    </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B308" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C308" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D308" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F308" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G308" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
-    </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B309" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F309" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G309" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="20"/>
-    </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B310" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C310" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F310" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G310" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="20"/>
-    </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B311" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C311" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D311" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E311" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F311" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G311" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
-    </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B312" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C312" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E312" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F312" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G312" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
-    </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B313" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C313" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E313" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F313" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G313" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
-    </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B314" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C314" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D314" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E314" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F314" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G314" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
-    </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B315" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C315" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D315" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E315" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F315" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G315" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
-    </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B316" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C316" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D316" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E316" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F316" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G316" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
-    </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B317" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C317" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E317" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F317" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G317" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
-    </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B318" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C318" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D318" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E318" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F318" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G318" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
-    </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B319" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C319" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D319" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E319" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F319" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G319" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
-    </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B320" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C320" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D320" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F320" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G320" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="20"/>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B321" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C321" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D321" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E321" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F321" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G321" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="20"/>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B322" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C322" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D322" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E322" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F322" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G322" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="20"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B323" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C323" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D323" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E323" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F323" s="24">
-        <v>49348</v>
-      </c>
-      <c r="G323" s="24">
-        <v>1361609</v>
-      </c>
-      <c r="H323" s="25"/>
-      <c r="I323" s="25"/>
-      <c r="J323" s="26"/>
-    </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B328" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C328" s="32"/>
-      <c r="H328" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I328" s="1"/>
-      <c r="J328" s="1"/>
-    </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B329" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C329" s="32"/>
-      <c r="H329" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I329" s="1"/>
-      <c r="J329" s="1"/>
+      <c r="B254" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C254" s="32"/>
+      <c r="H254" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="H329:J329"/>
-    <mergeCell ref="H328:J328"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="H254:J254"/>
+    <mergeCell ref="H253:J253"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
